--- a/dados/input.xlsx
+++ b/dados/input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://estacio-my.sharepoint.com/personal/douglas_pinheiro_yduqs_com_br/Documents/Automation/E-MEC/dados/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="8_{291A8A4C-EF67-4BB5-B1A7-251346D73715}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{271C94BB-5FCD-4DEB-8C25-303F7AF97BBE}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{6C8F16B5-250D-4D20-846F-250CDD72E0A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19695" windowHeight="11760" xr2:uid="{8392B76D-94BA-4C51-924C-D0C01EF9A611}"/>
   </bookViews>
@@ -420,7 +420,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
